--- a/data_year/zb/运输和邮电/沿海规模以上港口分货类吞吐量/进港量.xlsx
+++ b/data_year/zb/运输和邮电/沿海规模以上港口分货类吞吐量/进港量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,967 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64013</v>
+        <v>310580</v>
       </c>
       <c r="C2" t="n">
-        <v>16056</v>
+        <v>93867</v>
       </c>
       <c r="D2" t="n">
-        <v>1289</v>
+        <v>629</v>
       </c>
       <c r="E2" t="n">
-        <v>589</v>
+        <v>2671</v>
       </c>
       <c r="F2" t="n">
-        <v>511</v>
+        <v>2199</v>
       </c>
       <c r="G2" t="n">
-        <v>11895</v>
+        <v>52402</v>
       </c>
       <c r="H2" t="n">
-        <v>273</v>
+        <v>564</v>
       </c>
       <c r="I2" t="n">
-        <v>14136</v>
+        <v>39827</v>
       </c>
       <c r="J2" t="n">
-        <v>4410</v>
+        <v>22175</v>
       </c>
       <c r="K2" t="n">
-        <v>2688</v>
+        <v>8468</v>
       </c>
       <c r="L2" t="n">
-        <v>8734</v>
+        <v>74522</v>
       </c>
       <c r="M2" t="n">
-        <v>2573</v>
+        <v>8537</v>
       </c>
       <c r="N2" t="n">
-        <v>859</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73440</v>
+        <v>346131</v>
       </c>
       <c r="C3" t="n">
-        <v>19247</v>
+        <v>104616</v>
       </c>
       <c r="D3" t="n">
-        <v>1177</v>
+        <v>782</v>
       </c>
       <c r="E3" t="n">
-        <v>645</v>
+        <v>3686</v>
       </c>
       <c r="F3" t="n">
-        <v>768</v>
+        <v>3279</v>
       </c>
       <c r="G3" t="n">
-        <v>13067</v>
+        <v>61221</v>
       </c>
       <c r="H3" t="n">
-        <v>314</v>
+        <v>635</v>
       </c>
       <c r="I3" t="n">
-        <v>14296</v>
+        <v>42782</v>
       </c>
       <c r="J3" t="n">
-        <v>5837</v>
+        <v>24390</v>
       </c>
       <c r="K3" t="n">
-        <v>3033</v>
+        <v>7918</v>
       </c>
       <c r="L3" t="n">
-        <v>11043</v>
+        <v>82029</v>
       </c>
       <c r="M3" t="n">
-        <v>3139</v>
+        <v>8834</v>
       </c>
       <c r="N3" t="n">
-        <v>874</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86891</v>
+        <v>381170</v>
       </c>
       <c r="C4" t="n">
-        <v>24076</v>
+        <v>119680</v>
       </c>
       <c r="D4" t="n">
-        <v>1610</v>
+        <v>750</v>
       </c>
       <c r="E4" t="n">
-        <v>740</v>
+        <v>4077</v>
       </c>
       <c r="F4" t="n">
-        <v>797</v>
+        <v>3389</v>
       </c>
       <c r="G4" t="n">
-        <v>15219</v>
+        <v>63803</v>
       </c>
       <c r="H4" t="n">
-        <v>415</v>
+        <v>676</v>
       </c>
       <c r="I4" t="n">
-        <v>15190</v>
+        <v>43506</v>
       </c>
       <c r="J4" t="n">
-        <v>7461</v>
+        <v>30973</v>
       </c>
       <c r="K4" t="n">
-        <v>2599</v>
+        <v>9598</v>
       </c>
       <c r="L4" t="n">
-        <v>13955</v>
+        <v>89869</v>
       </c>
       <c r="M4" t="n">
-        <v>3691</v>
+        <v>9168</v>
       </c>
       <c r="N4" t="n">
-        <v>1138</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104782</v>
+        <v>416111</v>
       </c>
       <c r="C5" t="n">
-        <v>29148</v>
+        <v>130581</v>
       </c>
       <c r="D5" t="n">
-        <v>1247</v>
+        <v>776</v>
       </c>
       <c r="E5" t="n">
-        <v>855</v>
+        <v>4469</v>
       </c>
       <c r="F5" t="n">
-        <v>1062</v>
+        <v>3941</v>
       </c>
       <c r="G5" t="n">
-        <v>16395</v>
+        <v>69059</v>
       </c>
       <c r="H5" t="n">
-        <v>428</v>
+        <v>847</v>
       </c>
       <c r="I5" t="n">
-        <v>18313</v>
+        <v>44905</v>
       </c>
       <c r="J5" t="n">
-        <v>8992</v>
+        <v>32987</v>
       </c>
       <c r="K5" t="n">
-        <v>3589</v>
+        <v>10448</v>
       </c>
       <c r="L5" t="n">
-        <v>18564</v>
+        <v>100802</v>
       </c>
       <c r="M5" t="n">
-        <v>4988</v>
+        <v>9777</v>
       </c>
       <c r="N5" t="n">
-        <v>1201</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130198</v>
+        <v>434904</v>
       </c>
       <c r="C6" t="n">
-        <v>36317</v>
+        <v>140504</v>
       </c>
       <c r="D6" t="n">
-        <v>1243</v>
+        <v>1066</v>
       </c>
       <c r="E6" t="n">
-        <v>826</v>
+        <v>4627</v>
       </c>
       <c r="F6" t="n">
-        <v>1466</v>
+        <v>4618</v>
       </c>
       <c r="G6" t="n">
-        <v>20717</v>
+        <v>65221</v>
       </c>
       <c r="H6" t="n">
-        <v>436</v>
+        <v>879</v>
       </c>
       <c r="I6" t="n">
-        <v>22125</v>
+        <v>47018</v>
       </c>
       <c r="J6" t="n">
-        <v>11922</v>
+        <v>35364</v>
       </c>
       <c r="K6" t="n">
-        <v>4369</v>
+        <v>11187</v>
       </c>
       <c r="L6" t="n">
-        <v>24099</v>
+        <v>107961</v>
       </c>
       <c r="M6" t="n">
-        <v>5365</v>
+        <v>9870</v>
       </c>
       <c r="N6" t="n">
-        <v>1313</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156692</v>
+        <v>443154</v>
       </c>
       <c r="C7" t="n">
-        <v>45048</v>
+        <v>144792</v>
       </c>
       <c r="D7" t="n">
-        <v>1357</v>
+        <v>1013</v>
       </c>
       <c r="E7" t="n">
-        <v>905</v>
+        <v>4200</v>
       </c>
       <c r="F7" t="n">
-        <v>1265</v>
+        <v>4830</v>
       </c>
       <c r="G7" t="n">
-        <v>23359</v>
+        <v>59239</v>
       </c>
       <c r="H7" t="n">
-        <v>662</v>
+        <v>777</v>
       </c>
       <c r="I7" t="n">
-        <v>24241</v>
+        <v>51702</v>
       </c>
       <c r="J7" t="n">
-        <v>15248</v>
+        <v>37138</v>
       </c>
       <c r="K7" t="n">
-        <v>5007</v>
+        <v>12686</v>
       </c>
       <c r="L7" t="n">
-        <v>32296</v>
+        <v>109437</v>
       </c>
       <c r="M7" t="n">
-        <v>5588</v>
+        <v>9277</v>
       </c>
       <c r="N7" t="n">
-        <v>1716</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182829</v>
+        <v>456867</v>
       </c>
       <c r="C8" t="n">
-        <v>55886</v>
+        <v>149395</v>
       </c>
       <c r="D8" t="n">
-        <v>1034</v>
+        <v>781</v>
       </c>
       <c r="E8" t="n">
-        <v>902</v>
+        <v>4743</v>
       </c>
       <c r="F8" t="n">
-        <v>1396</v>
+        <v>4748</v>
       </c>
       <c r="G8" t="n">
-        <v>26254</v>
+        <v>60097</v>
       </c>
       <c r="H8" t="n">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="I8" t="n">
-        <v>26259</v>
+        <v>56961</v>
       </c>
       <c r="J8" t="n">
-        <v>17373</v>
+        <v>34801</v>
       </c>
       <c r="K8" t="n">
-        <v>5076</v>
+        <v>12174</v>
       </c>
       <c r="L8" t="n">
-        <v>39491</v>
+        <v>115064</v>
       </c>
       <c r="M8" t="n">
-        <v>5788</v>
+        <v>9400</v>
       </c>
       <c r="N8" t="n">
-        <v>2820</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>205700</v>
+        <v>489734</v>
       </c>
       <c r="C9" t="n">
-        <v>66922</v>
+        <v>157006</v>
       </c>
       <c r="D9" t="n">
-        <v>1084</v>
+        <v>880</v>
       </c>
       <c r="E9" t="n">
-        <v>961</v>
+        <v>4925</v>
       </c>
       <c r="F9" t="n">
-        <v>1689</v>
+        <v>5019</v>
       </c>
       <c r="G9" t="n">
-        <v>30889</v>
+        <v>64965</v>
       </c>
       <c r="H9" t="n">
-        <v>528</v>
+        <v>1011</v>
       </c>
       <c r="I9" t="n">
-        <v>27393</v>
+        <v>63005</v>
       </c>
       <c r="J9" t="n">
-        <v>15242</v>
+        <v>38390</v>
       </c>
       <c r="K9" t="n">
-        <v>5127</v>
+        <v>14289</v>
       </c>
       <c r="L9" t="n">
-        <v>45389</v>
+        <v>119866</v>
       </c>
       <c r="M9" t="n">
-        <v>6586</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="n">
-        <v>3890</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231587</v>
+        <v>518509</v>
       </c>
       <c r="C10" t="n">
-        <v>75523</v>
+        <v>163089</v>
       </c>
       <c r="D10" t="n">
-        <v>627</v>
+        <v>989</v>
       </c>
       <c r="E10" t="n">
-        <v>858</v>
+        <v>5476</v>
       </c>
       <c r="F10" t="n">
-        <v>1946</v>
+        <v>5657</v>
       </c>
       <c r="G10" t="n">
-        <v>33431</v>
+        <v>70696</v>
       </c>
       <c r="H10" t="n">
-        <v>543</v>
+        <v>994</v>
       </c>
       <c r="I10" t="n">
-        <v>29591</v>
+        <v>67817</v>
       </c>
       <c r="J10" t="n">
-        <v>20107</v>
+        <v>44475</v>
       </c>
       <c r="K10" t="n">
-        <v>5836</v>
+        <v>14048</v>
       </c>
       <c r="L10" t="n">
-        <v>53224</v>
+        <v>122221</v>
       </c>
       <c r="M10" t="n">
-        <v>6392</v>
+        <v>11256</v>
       </c>
       <c r="N10" t="n">
-        <v>3509</v>
+        <v>11791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>273208</v>
+        <v>518966.0961</v>
       </c>
       <c r="C11" t="n">
-        <v>82281</v>
+        <v>142463.0086</v>
       </c>
       <c r="D11" t="n">
-        <v>559</v>
+        <v>1299.7388</v>
       </c>
       <c r="E11" t="n">
-        <v>1637</v>
+        <v>5445.1516</v>
       </c>
       <c r="F11" t="n">
-        <v>1735</v>
+        <v>7352.6381</v>
       </c>
       <c r="G11" t="n">
-        <v>42354</v>
+        <v>73888.5102</v>
       </c>
       <c r="H11" t="n">
-        <v>354</v>
+        <v>929.3701</v>
       </c>
       <c r="I11" t="n">
-        <v>33995</v>
+        <v>77510.3069</v>
       </c>
       <c r="J11" t="n">
-        <v>20674</v>
+        <v>39350.6123</v>
       </c>
       <c r="K11" t="n">
-        <v>6877</v>
+        <v>13620.1458</v>
       </c>
       <c r="L11" t="n">
-        <v>71349</v>
+        <v>128215.2344</v>
       </c>
       <c r="M11" t="n">
-        <v>7969</v>
+        <v>13143.8705</v>
       </c>
       <c r="N11" t="n">
-        <v>3423</v>
+        <v>15747.5088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>310580</v>
+        <v>540979.5018</v>
       </c>
       <c r="C12" t="n">
-        <v>93867</v>
+        <v>119612.8361</v>
       </c>
       <c r="D12" t="n">
-        <v>629</v>
+        <v>1143.7058</v>
       </c>
       <c r="E12" t="n">
-        <v>2671</v>
+        <v>5184.3415</v>
       </c>
       <c r="F12" t="n">
-        <v>2199</v>
+        <v>8281.3789</v>
       </c>
       <c r="G12" t="n">
-        <v>52402</v>
+        <v>74269.20729999999</v>
       </c>
       <c r="H12" t="n">
-        <v>564</v>
+        <v>754.5519</v>
       </c>
       <c r="I12" t="n">
-        <v>39827</v>
+        <v>85312.35520000001</v>
       </c>
       <c r="J12" t="n">
-        <v>22175</v>
+        <v>38711.0037</v>
       </c>
       <c r="K12" t="n">
-        <v>8468</v>
+        <v>15679.2397</v>
       </c>
       <c r="L12" t="n">
-        <v>74522</v>
+        <v>133502.1282</v>
       </c>
       <c r="M12" t="n">
-        <v>8537</v>
+        <v>15528.7089</v>
       </c>
       <c r="N12" t="n">
-        <v>4718</v>
+        <v>17717.0933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346131</v>
+        <v>553688.845</v>
       </c>
       <c r="C13" t="n">
-        <v>104616</v>
+        <v>120582.7721</v>
       </c>
       <c r="D13" t="n">
-        <v>782</v>
+        <v>953.3455</v>
       </c>
       <c r="E13" t="n">
-        <v>3686</v>
+        <v>6636.3541</v>
       </c>
       <c r="F13" t="n">
-        <v>3279</v>
+        <v>7829.5438</v>
       </c>
       <c r="G13" t="n">
-        <v>61221</v>
+        <v>84296.13250000001</v>
       </c>
       <c r="H13" t="n">
-        <v>635</v>
+        <v>774.2047</v>
       </c>
       <c r="I13" t="n">
-        <v>42782</v>
+        <v>85490.853</v>
       </c>
       <c r="J13" t="n">
-        <v>24390</v>
+        <v>38755.6511</v>
       </c>
       <c r="K13" t="n">
-        <v>7918</v>
+        <v>17669.707</v>
       </c>
       <c r="L13" t="n">
-        <v>82029</v>
+        <v>133006.2676</v>
       </c>
       <c r="M13" t="n">
-        <v>8834</v>
+        <v>14286.0369</v>
       </c>
       <c r="N13" t="n">
-        <v>5958</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>381170</v>
-      </c>
-      <c r="C14" t="n">
-        <v>119680</v>
-      </c>
-      <c r="D14" t="n">
-        <v>750</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4077</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3389</v>
-      </c>
-      <c r="G14" t="n">
-        <v>63803</v>
-      </c>
-      <c r="H14" t="n">
-        <v>676</v>
-      </c>
-      <c r="I14" t="n">
-        <v>43506</v>
-      </c>
-      <c r="J14" t="n">
-        <v>30973</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9598</v>
-      </c>
-      <c r="L14" t="n">
-        <v>89869</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9168</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5681</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>416111</v>
-      </c>
-      <c r="C15" t="n">
-        <v>130581</v>
-      </c>
-      <c r="D15" t="n">
-        <v>776</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4469</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3941</v>
-      </c>
-      <c r="G15" t="n">
-        <v>69059</v>
-      </c>
-      <c r="H15" t="n">
-        <v>847</v>
-      </c>
-      <c r="I15" t="n">
-        <v>44905</v>
-      </c>
-      <c r="J15" t="n">
-        <v>32987</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10448</v>
-      </c>
-      <c r="L15" t="n">
-        <v>100802</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9777</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7519</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>434904</v>
-      </c>
-      <c r="C16" t="n">
-        <v>140504</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1066</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4627</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4618</v>
-      </c>
-      <c r="G16" t="n">
-        <v>65221</v>
-      </c>
-      <c r="H16" t="n">
-        <v>879</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47018</v>
-      </c>
-      <c r="J16" t="n">
-        <v>35364</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11187</v>
-      </c>
-      <c r="L16" t="n">
-        <v>107961</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9870</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6589</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>443154</v>
-      </c>
-      <c r="C17" t="n">
-        <v>144792</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1013</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4200</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4830</v>
-      </c>
-      <c r="G17" t="n">
-        <v>59239</v>
-      </c>
-      <c r="H17" t="n">
-        <v>777</v>
-      </c>
-      <c r="I17" t="n">
-        <v>51702</v>
-      </c>
-      <c r="J17" t="n">
-        <v>37138</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12686</v>
-      </c>
-      <c r="L17" t="n">
-        <v>109437</v>
-      </c>
-      <c r="M17" t="n">
-        <v>9277</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8063</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>456867</v>
-      </c>
-      <c r="C18" t="n">
-        <v>149395</v>
-      </c>
-      <c r="D18" t="n">
-        <v>781</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4743</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4748</v>
-      </c>
-      <c r="G18" t="n">
-        <v>60097</v>
-      </c>
-      <c r="H18" t="n">
-        <v>708</v>
-      </c>
-      <c r="I18" t="n">
-        <v>56961</v>
-      </c>
-      <c r="J18" t="n">
-        <v>34801</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12174</v>
-      </c>
-      <c r="L18" t="n">
-        <v>115064</v>
-      </c>
-      <c r="M18" t="n">
-        <v>9400</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7995</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>489734</v>
-      </c>
-      <c r="C19" t="n">
-        <v>157006</v>
-      </c>
-      <c r="D19" t="n">
-        <v>880</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4925</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5019</v>
-      </c>
-      <c r="G19" t="n">
-        <v>64965</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1011</v>
-      </c>
-      <c r="I19" t="n">
-        <v>63005</v>
-      </c>
-      <c r="J19" t="n">
-        <v>38390</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14289</v>
-      </c>
-      <c r="L19" t="n">
-        <v>119866</v>
-      </c>
-      <c r="M19" t="n">
-        <v>11000</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9378</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>518509</v>
-      </c>
-      <c r="C20" t="n">
-        <v>163089</v>
-      </c>
-      <c r="D20" t="n">
-        <v>989</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5476</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5657</v>
-      </c>
-      <c r="G20" t="n">
-        <v>70696</v>
-      </c>
-      <c r="H20" t="n">
-        <v>994</v>
-      </c>
-      <c r="I20" t="n">
-        <v>67817</v>
-      </c>
-      <c r="J20" t="n">
-        <v>44475</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14048</v>
-      </c>
-      <c r="L20" t="n">
-        <v>122221</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11256</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11791</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>518966.0961</v>
-      </c>
-      <c r="C21" t="n">
-        <v>142463.0086</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1299.7388</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5445.1516</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7352.6381</v>
-      </c>
-      <c r="G21" t="n">
-        <v>73888.5102</v>
-      </c>
-      <c r="H21" t="n">
-        <v>929.3701</v>
-      </c>
-      <c r="I21" t="n">
-        <v>77510.3069</v>
-      </c>
-      <c r="J21" t="n">
-        <v>39350.6123</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13620.1458</v>
-      </c>
-      <c r="L21" t="n">
-        <v>128215.2344</v>
-      </c>
-      <c r="M21" t="n">
-        <v>13143.8705</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15747.5088</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>540979.5018</v>
-      </c>
-      <c r="C22" t="n">
-        <v>119612.8361</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1143.7058</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5184.3415</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8281.3789</v>
-      </c>
-      <c r="G22" t="n">
-        <v>74269.20729999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>754.5519</v>
-      </c>
-      <c r="I22" t="n">
-        <v>85312.35520000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>38711.0037</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15679.2397</v>
-      </c>
-      <c r="L22" t="n">
-        <v>133502.1282</v>
-      </c>
-      <c r="M22" t="n">
-        <v>15528.7089</v>
-      </c>
-      <c r="N22" t="n">
-        <v>17717.0933</v>
+        <v>15762.3701</v>
       </c>
     </row>
   </sheetData>
